--- a/1613491330王嘉玮_UC矩阵.xlsx
+++ b/1613491330王嘉玮_UC矩阵.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\毕业论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD782942-503F-4664-B962-20A8730F7363}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBC1CFE-0436-4C61-94C8-7590573DE90A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>创建系统管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电动汽车充电桩智能运维管理系统子模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>充电桩参数配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,22 +104,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计运营数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营数据统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置价格信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运营管理模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>充电桩价格表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,14 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置维修人员排班规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修人员排班规则表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导入维修人员信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +181,22 @@
   </si>
   <si>
     <t>添加充电桩异常记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营数据统计模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动汽车充电桩智能运维管理系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -404,19 +396,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -548,13 +527,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
@@ -567,20 +586,9 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -599,21 +607,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,9 +631,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -654,57 +644,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1011,656 +1022,595 @@
     <col min="1" max="1" width="17.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" style="3" customWidth="1"/>
     <col min="3" max="6" width="3.21875" style="3" customWidth="1"/>
-    <col min="7" max="10" width="3.21875" style="9" customWidth="1"/>
-    <col min="11" max="14" width="3.21875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="3.21875" style="9" customWidth="1"/>
-    <col min="16" max="25" width="3.21875" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="3"/>
+    <col min="7" max="9" width="3.21875" style="4" customWidth="1"/>
+    <col min="10" max="13" width="3.21875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="3.21875" style="4" customWidth="1"/>
+    <col min="15" max="23" width="3.21875" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="142.80000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:23" ht="142.80000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="29"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="38"/>
-    </row>
-    <row r="3" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:25" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:25" s="9" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:25" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:25" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="S17" s="34"/>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="S18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" s="12"/>
-    </row>
-    <row r="19" spans="1:20" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="T19" s="12"/>
-    </row>
-    <row r="20" spans="1:20" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -1668,20 +1618,14 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A11"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
